--- a/datastatic/datasets/online/SDG3_Adolescent_Fertility_Rate_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG3_Adolescent_Fertility_Rate_OECD_2014.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
   <si>
     <t>original_title</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Luxembourg</t>
   </si>
   <si>
-    <t>Mexico</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>Bulgaria</t>
   </si>
   <si>
-    <t>Colombia</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -335,7 +329,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -375,6 +369,11 @@
       <name val="Calibri"/>
     </font>
     <font/>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -415,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -478,9 +477,13 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -1601,14 +1604,16 @@
       <c r="A38" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22">
+      <c r="B38" s="22">
         <v>15.6</v>
       </c>
-      <c r="D38" s="22">
+      <c r="C38" s="23">
         <v>15.6</v>
       </c>
-      <c r="E38" s="22"/>
+      <c r="D38" s="23">
+        <v>15.6</v>
+      </c>
+      <c r="E38" s="23"/>
       <c r="G38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -1665,16 +1670,16 @@
       <c r="A40" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="23">
         <v>6.9</v>
       </c>
-      <c r="C40" s="22">
+      <c r="C40" s="23">
         <v>9.2</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="23">
         <v>8.5</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="23">
         <v>7.3</v>
       </c>
       <c r="G40" s="4"/>
@@ -1699,7 +1704,9 @@
       <c r="A41" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="3"/>
+      <c r="B41" s="24">
+        <v>12.6</v>
+      </c>
       <c r="C41" s="3">
         <v>12.6</v>
       </c>
@@ -1727,14 +1734,16 @@
       <c r="A42" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22">
+      <c r="B42" s="22">
+        <v>51.5</v>
+      </c>
+      <c r="C42" s="23">
         <v>54.0</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="23">
         <v>51.5</v>
       </c>
-      <c r="E42" s="22"/>
+      <c r="E42" s="23"/>
       <c r="G42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -1791,16 +1800,16 @@
       <c r="A44" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="22">
+      <c r="B44" s="23">
         <v>3.6</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="23">
         <v>4.6</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="23">
         <v>4.4</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E44" s="23">
         <v>4.2</v>
       </c>
       <c r="G44" s="4"/>
@@ -1859,16 +1868,16 @@
       <c r="A46" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="22">
+      <c r="B46" s="23">
         <v>7.2</v>
       </c>
-      <c r="C46" s="22">
+      <c r="C46" s="23">
         <v>7.7</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D46" s="23">
         <v>7.5</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E46" s="23">
         <v>7.3</v>
       </c>
       <c r="G46" s="4"/>
@@ -1924,19 +1933,19 @@
       <c r="X47" s="4"/>
     </row>
     <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B48" s="22">
+      <c r="B48" s="23">
         <v>7.8</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="23">
         <v>8.2</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D48" s="23">
         <v>8.0</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E48" s="23">
         <v>7.7</v>
       </c>
       <c r="G48" s="4"/>
@@ -1995,16 +2004,16 @@
       <c r="A50" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B50" s="22">
+      <c r="B50" s="23">
         <v>23.1</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="23">
         <v>18.0</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D50" s="23">
         <v>19.2</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E50" s="23">
         <v>21.1</v>
       </c>
       <c r="G50" s="4"/>
@@ -2063,16 +2072,16 @@
       <c r="A52" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="22">
+      <c r="B52" s="23">
         <v>9.0</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="23">
         <v>12.4</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D52" s="23">
         <v>12.2</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="23">
         <v>10.3</v>
       </c>
       <c r="G52" s="4"/>
@@ -2094,10 +2103,12 @@
       <c r="X52" s="4"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B53" s="3"/>
+      <c r="B53" s="24">
+        <v>10.9</v>
+      </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3">
         <v>12.1</v>
@@ -2127,16 +2138,16 @@
       <c r="A54" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B54" s="22">
+      <c r="B54" s="23">
         <v>5.6</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="23">
         <v>6.5</v>
       </c>
-      <c r="D54" s="22">
+      <c r="D54" s="23">
         <v>6.4</v>
       </c>
-      <c r="E54" s="22">
+      <c r="E54" s="23">
         <v>5.9</v>
       </c>
       <c r="G54" s="4"/>
@@ -2161,7 +2172,9 @@
       <c r="A55" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="24">
+        <v>4.4</v>
+      </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3">
         <v>4.3</v>
@@ -2191,12 +2204,14 @@
       <c r="A56" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22">
+      <c r="B56" s="22">
+        <v>1.7</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23">
         <v>1.8</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E56" s="23">
         <v>1.7</v>
       </c>
       <c r="G56" s="4"/>
@@ -2218,7 +2233,7 @@
       <c r="X56" s="4"/>
     </row>
     <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="3">
@@ -2255,16 +2270,16 @@
       <c r="A58" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B58" s="22">
+      <c r="B58" s="23">
         <v>5.7</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="23">
         <v>7.2</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D58" s="23">
         <v>6.5</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E58" s="23">
         <v>5.2</v>
       </c>
       <c r="G58" s="4"/>
@@ -2289,12 +2304,18 @@
       <c r="A59" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3">
-        <v>73.6</v>
+      <c r="B59" s="23">
+        <v>3.7</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="C59" s="23">
+        <v>4.8</v>
+      </c>
+      <c r="D59" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="E59" s="23">
+        <v>3.9</v>
+      </c>
       <c r="G59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
@@ -2317,17 +2338,17 @@
       <c r="A60" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="22">
-        <v>3.7</v>
+      <c r="B60" s="24">
+        <v>22.0</v>
       </c>
-      <c r="C60" s="22">
-        <v>4.8</v>
+      <c r="C60" s="3">
+        <v>25.8</v>
       </c>
-      <c r="D60" s="22">
-        <v>4.5</v>
+      <c r="D60" s="3">
+        <v>24.9</v>
       </c>
-      <c r="E60" s="22">
-        <v>3.9</v>
+      <c r="E60" s="3">
+        <v>22.0</v>
       </c>
       <c r="G60" s="4"/>
       <c r="I60" s="4"/>
@@ -2351,15 +2372,17 @@
       <c r="A61" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3">
-        <v>25.8</v>
+      <c r="B61" s="23">
+        <v>5.0</v>
       </c>
-      <c r="D61" s="3">
-        <v>24.9</v>
+      <c r="C61" s="23">
+        <v>7.1</v>
       </c>
-      <c r="E61" s="3">
-        <v>22.0</v>
+      <c r="D61" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="E61" s="23">
+        <v>5.7</v>
       </c>
       <c r="G61" s="4"/>
       <c r="I61" s="4"/>
@@ -2383,17 +2406,17 @@
       <c r="A62" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B62" s="22">
-        <v>5.0</v>
+      <c r="B62" s="3">
+        <v>13.1</v>
       </c>
-      <c r="C62" s="22">
-        <v>7.1</v>
+      <c r="C62" s="3">
+        <v>14.0</v>
       </c>
-      <c r="D62" s="22">
-        <v>6.0</v>
+      <c r="D62" s="3">
+        <v>14.2</v>
       </c>
-      <c r="E62" s="22">
-        <v>5.7</v>
+      <c r="E62" s="3">
+        <v>13.7</v>
       </c>
       <c r="G62" s="4"/>
       <c r="I62" s="4"/>
@@ -2417,17 +2440,17 @@
       <c r="A63" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="23">
+        <v>9.1</v>
+      </c>
+      <c r="C63" s="23">
         <v>13.1</v>
       </c>
-      <c r="C63" s="3">
-        <v>14.0</v>
+      <c r="D63" s="23">
+        <v>12.0</v>
       </c>
-      <c r="D63" s="3">
-        <v>14.2</v>
-      </c>
-      <c r="E63" s="3">
-        <v>13.7</v>
+      <c r="E63" s="23">
+        <v>10.5</v>
       </c>
       <c r="G63" s="4"/>
       <c r="I63" s="4"/>
@@ -2448,20 +2471,20 @@
       <c r="X63" s="4"/>
     </row>
     <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="22">
-        <v>9.1</v>
+      <c r="B64" s="3">
+        <v>23.7</v>
       </c>
-      <c r="C64" s="22">
-        <v>13.1</v>
+      <c r="C64" s="3">
+        <v>22.0</v>
       </c>
-      <c r="D64" s="22">
-        <v>12.0</v>
+      <c r="D64" s="3">
+        <v>21.6</v>
       </c>
-      <c r="E64" s="22">
-        <v>10.5</v>
+      <c r="E64" s="3">
+        <v>22.1</v>
       </c>
       <c r="G64" s="4"/>
       <c r="I64" s="4"/>
@@ -2482,20 +2505,20 @@
       <c r="X64" s="4"/>
     </row>
     <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="3">
-        <v>23.7</v>
+      <c r="B65" s="23">
+        <v>5.0</v>
       </c>
-      <c r="C65" s="3">
-        <v>22.0</v>
+      <c r="C65" s="23">
+        <v>5.2</v>
       </c>
-      <c r="D65" s="3">
-        <v>21.6</v>
+      <c r="D65" s="23">
+        <v>4.5</v>
       </c>
-      <c r="E65" s="3">
-        <v>22.1</v>
+      <c r="E65" s="23">
+        <v>4.7</v>
       </c>
       <c r="G65" s="4"/>
       <c r="I65" s="4"/>
@@ -2519,17 +2542,17 @@
       <c r="A66" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B66" s="22">
-        <v>5.0</v>
+      <c r="B66" s="3">
+        <v>8.1</v>
       </c>
-      <c r="C66" s="22">
-        <v>5.2</v>
+      <c r="C66" s="3">
+        <v>9.5</v>
       </c>
-      <c r="D66" s="22">
-        <v>4.5</v>
+      <c r="D66" s="3">
+        <v>9.0</v>
       </c>
-      <c r="E66" s="22">
-        <v>4.7</v>
+      <c r="E66" s="3">
+        <v>8.4</v>
       </c>
       <c r="G66" s="4"/>
       <c r="I66" s="4"/>
@@ -2553,17 +2576,17 @@
       <c r="A67" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="B67" s="3">
-        <v>8.1</v>
+      <c r="B67" s="23">
+        <v>5.0</v>
       </c>
-      <c r="C67" s="3">
-        <v>9.5</v>
+      <c r="C67" s="23">
+        <v>5.9</v>
       </c>
-      <c r="D67" s="3">
-        <v>9.0</v>
+      <c r="D67" s="23">
+        <v>5.3</v>
       </c>
-      <c r="E67" s="3">
-        <v>8.4</v>
+      <c r="E67" s="23">
+        <v>5.3</v>
       </c>
       <c r="G67" s="4"/>
       <c r="I67" s="4"/>
@@ -2587,17 +2610,17 @@
       <c r="A68" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B68" s="22">
-        <v>5.0</v>
+      <c r="B68" s="3">
+        <v>2.9</v>
       </c>
-      <c r="C68" s="22">
-        <v>5.9</v>
+      <c r="C68" s="3">
+        <v>3.3</v>
       </c>
-      <c r="D68" s="22">
-        <v>5.3</v>
+      <c r="D68" s="3">
+        <v>3.4</v>
       </c>
-      <c r="E68" s="22">
-        <v>5.3</v>
+      <c r="E68" s="3">
+        <v>3.0</v>
       </c>
       <c r="G68" s="4"/>
       <c r="I68" s="4"/>
@@ -2621,17 +2644,17 @@
       <c r="A69" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="B69" s="3">
-        <v>2.9</v>
+      <c r="B69" s="23">
+        <v>26.9</v>
       </c>
-      <c r="C69" s="3">
-        <v>3.3</v>
+      <c r="C69" s="23">
+        <v>31.3</v>
       </c>
-      <c r="D69" s="3">
-        <v>3.4</v>
+      <c r="D69" s="23">
+        <v>29.6</v>
       </c>
-      <c r="E69" s="3">
-        <v>3.0</v>
+      <c r="E69" s="23">
+        <v>28.0</v>
       </c>
       <c r="G69" s="4"/>
       <c r="I69" s="4"/>
@@ -2652,20 +2675,20 @@
       <c r="X69" s="4"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="22">
-        <v>26.9</v>
+      <c r="B70" s="3">
+        <v>15.5</v>
       </c>
-      <c r="C70" s="22">
-        <v>31.3</v>
+      <c r="C70" s="3">
+        <v>21.1</v>
       </c>
-      <c r="D70" s="22">
-        <v>29.6</v>
+      <c r="D70" s="3">
+        <v>19.7</v>
       </c>
-      <c r="E70" s="22">
-        <v>28.0</v>
+      <c r="E70" s="3">
+        <v>17.3</v>
       </c>
       <c r="G70" s="4"/>
       <c r="I70" s="4"/>
@@ -2686,20 +2709,20 @@
       <c r="X70" s="4"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="24" t="s">
+      <c r="A71" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="B71" s="3">
-        <v>15.5</v>
+      <c r="B71" s="22">
+        <v>26.6</v>
       </c>
-      <c r="C71" s="3">
-        <v>21.1</v>
+      <c r="C71" s="23">
+        <v>31.3</v>
       </c>
-      <c r="D71" s="3">
-        <v>19.7</v>
+      <c r="D71" s="23">
+        <v>29.4</v>
       </c>
-      <c r="E71" s="3">
-        <v>17.3</v>
+      <c r="E71" s="23">
+        <v>26.6</v>
       </c>
       <c r="G71" s="4"/>
       <c r="I71" s="4"/>
@@ -2720,18 +2743,20 @@
       <c r="X71" s="4"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="24" t="s">
+      <c r="A72" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22">
-        <v>31.3</v>
+      <c r="B72" s="3">
+        <v>41.3</v>
       </c>
-      <c r="D72" s="22">
-        <v>29.4</v>
+      <c r="C72" s="3">
+        <v>41.7</v>
       </c>
-      <c r="E72" s="22">
-        <v>26.6</v>
+      <c r="D72" s="3">
+        <v>42.5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>42.0</v>
       </c>
       <c r="G72" s="4"/>
       <c r="I72" s="4"/>
@@ -2755,17 +2780,17 @@
       <c r="A73" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="3">
-        <v>41.3</v>
+      <c r="B73" s="24">
+        <v>63.0</v>
       </c>
       <c r="C73" s="3">
-        <v>41.7</v>
+        <v>67.0</v>
       </c>
       <c r="D73" s="3">
-        <v>42.5</v>
+        <v>68.8</v>
       </c>
       <c r="E73" s="3">
-        <v>42.0</v>
+        <v>63.0</v>
       </c>
       <c r="G73" s="4"/>
       <c r="I73" s="4"/>
@@ -2786,13 +2811,21 @@
       <c r="X73" s="4"/>
     </row>
     <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
+      <c r="B74" s="23">
+        <v>10.2</v>
+      </c>
+      <c r="C74" s="23">
+        <v>11.9</v>
+      </c>
+      <c r="D74" s="23">
+        <v>11.4</v>
+      </c>
+      <c r="E74" s="23">
+        <v>10.6</v>
+      </c>
       <c r="G74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
@@ -2812,18 +2845,20 @@
       <c r="X74" s="4"/>
     </row>
     <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="20" t="s">
+      <c r="A75" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="B75" s="3"/>
+      <c r="B75" s="3">
+        <v>4.9</v>
+      </c>
       <c r="C75" s="3">
-        <v>67.0</v>
+        <v>5.6</v>
       </c>
       <c r="D75" s="3">
-        <v>68.8</v>
+        <v>6.5</v>
       </c>
       <c r="E75" s="3">
-        <v>63.0</v>
+        <v>4.7</v>
       </c>
       <c r="G75" s="4"/>
       <c r="I75" s="4"/>
@@ -2844,20 +2879,20 @@
       <c r="X75" s="4"/>
     </row>
     <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="22">
-        <v>10.2</v>
+      <c r="B76" s="23">
+        <v>13.6</v>
       </c>
-      <c r="C76" s="22">
-        <v>11.9</v>
+      <c r="C76" s="23">
+        <v>14.1</v>
       </c>
-      <c r="D76" s="22">
-        <v>11.4</v>
+      <c r="D76" s="23">
+        <v>14.5</v>
       </c>
-      <c r="E76" s="22">
-        <v>10.6</v>
+      <c r="E76" s="23">
+        <v>14.2</v>
       </c>
       <c r="G76" s="4"/>
       <c r="I76" s="4"/>
@@ -2878,20 +2913,20 @@
       <c r="X76" s="4"/>
     </row>
     <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="23" t="s">
+      <c r="A77" s="20" t="s">
         <v>100</v>
       </c>
       <c r="B77" s="3">
-        <v>4.9</v>
+        <v>12.9</v>
       </c>
       <c r="C77" s="3">
-        <v>5.6</v>
+        <v>17.2</v>
       </c>
       <c r="D77" s="3">
-        <v>6.5</v>
+        <v>16.7</v>
       </c>
       <c r="E77" s="3">
-        <v>4.7</v>
+        <v>13.1</v>
       </c>
       <c r="G77" s="4"/>
       <c r="I77" s="4"/>
@@ -2912,20 +2947,20 @@
       <c r="X77" s="4"/>
     </row>
     <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="23" t="s">
+      <c r="A78" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B78" s="22">
-        <v>13.6</v>
+      <c r="B78" s="23">
+        <v>35.3</v>
       </c>
-      <c r="C78" s="22">
-        <v>14.1</v>
+      <c r="C78" s="23">
+        <v>37.4</v>
       </c>
-      <c r="D78" s="22">
-        <v>14.5</v>
+      <c r="D78" s="23">
+        <v>37.1</v>
       </c>
-      <c r="E78" s="22">
-        <v>14.2</v>
+      <c r="E78" s="23">
+        <v>33.8</v>
       </c>
       <c r="G78" s="4"/>
       <c r="I78" s="4"/>
@@ -2949,17 +2984,17 @@
       <c r="A79" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B79" s="3">
-        <v>12.9</v>
+      <c r="B79" s="24">
+        <v>26.6</v>
       </c>
       <c r="C79" s="3">
-        <v>17.2</v>
+        <v>26.7</v>
       </c>
       <c r="D79" s="3">
-        <v>16.7</v>
+        <v>27.3</v>
       </c>
       <c r="E79" s="3">
-        <v>13.1</v>
+        <v>26.6</v>
       </c>
       <c r="G79" s="4"/>
       <c r="I79" s="4"/>
@@ -2979,23 +3014,15 @@
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
     </row>
-    <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="B80" s="22">
-        <v>35.3</v>
-      </c>
-      <c r="C80" s="22">
-        <v>37.4</v>
-      </c>
-      <c r="D80" s="22">
-        <v>37.1</v>
-      </c>
-      <c r="E80" s="22">
-        <v>33.8</v>
-      </c>
+    <row r="80" ht="13.5" customHeight="1">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
       <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
@@ -3013,21 +3040,15 @@
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
     </row>
-    <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="20" t="s">
-        <v>104</v>
-      </c>
+    <row r="81" ht="13.5" customHeight="1">
+      <c r="A81" s="3"/>
       <c r="B81" s="3"/>
-      <c r="C81" s="3">
-        <v>26.7</v>
-      </c>
-      <c r="D81" s="3">
-        <v>27.3</v>
-      </c>
-      <c r="E81" s="3">
-        <v>26.6</v>
-      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
       <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
@@ -27641,58 +27662,6 @@
       <c r="W1027" s="4"/>
       <c r="X1027" s="4"/>
     </row>
-    <row r="1028" ht="13.5" customHeight="1">
-      <c r="A1028" s="3"/>
-      <c r="B1028" s="3"/>
-      <c r="C1028" s="3"/>
-      <c r="D1028" s="3"/>
-      <c r="E1028" s="3"/>
-      <c r="F1028" s="3"/>
-      <c r="G1028" s="4"/>
-      <c r="H1028" s="4"/>
-      <c r="I1028" s="4"/>
-      <c r="J1028" s="4"/>
-      <c r="K1028" s="4"/>
-      <c r="L1028" s="4"/>
-      <c r="M1028" s="4"/>
-      <c r="N1028" s="4"/>
-      <c r="O1028" s="4"/>
-      <c r="P1028" s="4"/>
-      <c r="Q1028" s="4"/>
-      <c r="R1028" s="4"/>
-      <c r="S1028" s="4"/>
-      <c r="T1028" s="4"/>
-      <c r="U1028" s="4"/>
-      <c r="V1028" s="4"/>
-      <c r="W1028" s="4"/>
-      <c r="X1028" s="4"/>
-    </row>
-    <row r="1029" ht="13.5" customHeight="1">
-      <c r="A1029" s="3"/>
-      <c r="B1029" s="3"/>
-      <c r="C1029" s="3"/>
-      <c r="D1029" s="3"/>
-      <c r="E1029" s="3"/>
-      <c r="F1029" s="3"/>
-      <c r="G1029" s="4"/>
-      <c r="H1029" s="4"/>
-      <c r="I1029" s="4"/>
-      <c r="J1029" s="4"/>
-      <c r="K1029" s="4"/>
-      <c r="L1029" s="4"/>
-      <c r="M1029" s="4"/>
-      <c r="N1029" s="4"/>
-      <c r="O1029" s="4"/>
-      <c r="P1029" s="4"/>
-      <c r="Q1029" s="4"/>
-      <c r="R1029" s="4"/>
-      <c r="S1029" s="4"/>
-      <c r="T1029" s="4"/>
-      <c r="U1029" s="4"/>
-      <c r="V1029" s="4"/>
-      <c r="W1029" s="4"/>
-      <c r="X1029" s="4"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B19"/>

--- a/datastatic/datasets/online/SDG3_Adolescent_Fertility_Rate_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG3_Adolescent_Fertility_Rate_OECD_2014.xlsx
@@ -498,7 +498,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG3_Adolescent_Fertility_Rate_OECD_2014.xlsx
+++ b/datastatic/datasets/online/SDG3_Adolescent_Fertility_Rate_OECD_2014.xlsx
@@ -498,7 +498,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
